--- a/КП Горячев Саша.xlsx
+++ b/КП Горячев Саша.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Коммерческие предложения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE97B4B-1E44-4ECA-ADB6-47DFAEF84105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3671FD4-99F4-4609-9BB4-5D75167F9680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2055" yWindow="1410" windowWidth="20460" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Камера IP уличная 3.6 2мпк</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Привести провода в порядок</t>
+  </si>
+  <si>
+    <t>аванс</t>
+  </si>
+  <si>
+    <t>старый долг</t>
   </si>
 </sst>
 </file>
@@ -450,24 +456,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,8 +498,21 @@
         <f>SUM(E1:E16)</f>
         <v>83300</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <f>G2/2</f>
+        <v>41650</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -510,7 +530,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -528,7 +548,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -546,7 +566,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -564,7 +584,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -582,7 +602,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -600,7 +620,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -618,7 +638,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -636,7 +656,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -654,7 +674,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -672,7 +692,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -690,7 +710,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -708,7 +728,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>

--- a/КП Горячев Саша.xlsx
+++ b/КП Горячев Саша.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Коммерческие предложения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3671FD4-99F4-4609-9BB4-5D75167F9680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EC6A3E-CD08-467E-A29F-4CD4ECB0C6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Камера IP уличная 3.6 2мпк</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>старый долг</t>
+  </si>
+  <si>
+    <t>Приставка</t>
+  </si>
+  <si>
+    <t>Пусконаладка приставки</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,28 +488,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>3700</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>25900</v>
+        <v>33300</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2">
-        <f>SUM(E1:E16)</f>
-        <v>83300</v>
+        <f>SUM(E1:E17)</f>
+        <v>99400</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2">
         <f>G2/2</f>
-        <v>41650</v>
+        <v>49700</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -523,11 +529,11 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">C3*D3</f>
-        <v>5200</v>
+        <f t="shared" ref="E3:E18" si="0">C3*D3</f>
+        <v>3700</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -565,6 +571,13 @@
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
+      <c r="G5">
+        <f>G2+M2</f>
+        <v>113200</v>
+      </c>
+      <c r="H5">
+        <v>41650</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -583,6 +596,10 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
+      <c r="G6">
+        <f>G5-H5</f>
+        <v>71550</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -692,222 +709,240 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>2000</v>
-      </c>
-      <c r="E14">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>5000</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D16">
-        <v>3000</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>3000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>3700</v>
-      </c>
-      <c r="E20">
-        <f>C20*D20</f>
-        <v>25900</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <f>SUM(E19:E33)</f>
-        <v>75600</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E29" si="1">C21*D21</f>
-        <v>5200</v>
+        <f>C21*D21</f>
+        <v>25900</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <f>SUM(E20:E34)</f>
+        <v>75600</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>5200</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E30" si="1">C22*D22</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>5900</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>5900</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>4000</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>2000</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>1200</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>3000</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>500</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -922,256 +957,256 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
         <v>3600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>2000</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ref="E31:E33" si="2">C31*D31</f>
-        <v>16000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E34" si="2">C32*D32</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>120</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>40</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <f t="shared" si="2"/>
         <v>4800</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>3000</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37">
-        <v>3600</v>
-      </c>
-      <c r="E37">
-        <f>C37*D37</f>
-        <v>25200</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37">
-        <f>SUM(E36:E50)</f>
-        <v>66700</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E46" si="3">C38*D38</f>
-        <v>2300</v>
+        <f>C38*D38</f>
+        <v>25200</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <f>SUM(E37:E51)</f>
+        <v>66700</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2300</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E47" si="3">C39*D39</f>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>21</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
         <v>500</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>2</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>8000</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>18</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
         <v>4000</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
         <v>2000</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>7</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>17</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
         <v>1200</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>8</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
         <v>3000</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>500</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-    </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1184,62 +1219,80 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>10</v>
       </c>
-      <c r="C48">
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="D48">
-        <v>2000</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ref="E48:E50" si="4">C48*D48</f>
-        <v>16000</v>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>500</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <v>2000</v>
       </c>
       <c r="E49">
+        <f t="shared" ref="E49:E51" si="4">C49*D49</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2000</v>
+      </c>
+      <c r="E50">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>3</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
         <v>1500</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
